--- a/Pregancy_Outcomes/Data/datadictionary.xlsx
+++ b/Pregancy_Outcomes/Data/datadictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Desktop\New folder\NawiriTech\Programs\NADS\Case Studies\Pregancy_Outcomes\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Documents\GitHub\RPSc\Pregancy_Outcomes\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C939763C-924A-45A6-9AA9-C94B6144EC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515B53F0-237D-47B7-90DE-C648A77CB746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,7 +711,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -786,6 +786,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1143,11 +1146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1179,7 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:120" s="4" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:120" s="4" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -1821,7 +1824,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:28" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1846,7 +1849,7 @@
       <c r="H22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="27" t="s">
         <v>33</v>
       </c>
       <c r="J22" s="22" t="s">
